--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lamb2-Rpsa.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.24481559765892</v>
+        <v>12.59642866666667</v>
       </c>
       <c r="H2">
-        <v>5.24481559765892</v>
+        <v>37.789286</v>
       </c>
       <c r="I2">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="J2">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.90640435113001</v>
+        <v>106.5625623333333</v>
       </c>
       <c r="N2">
-        <v>81.90640435113001</v>
+        <v>319.687687</v>
       </c>
       <c r="O2">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="P2">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="Q2">
-        <v>429.583987088965</v>
+        <v>1342.307714969054</v>
       </c>
       <c r="R2">
-        <v>429.583987088965</v>
+        <v>12080.76943472148</v>
       </c>
       <c r="S2">
-        <v>0.0115962080663668</v>
+        <v>0.03066830458804686</v>
       </c>
       <c r="T2">
-        <v>0.0115962080663668</v>
+        <v>0.03066830458804686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.24481559765892</v>
+        <v>12.59642866666667</v>
       </c>
       <c r="H3">
-        <v>5.24481559765892</v>
+        <v>37.789286</v>
       </c>
       <c r="I3">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="J3">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>102.124381961226</v>
+        <v>102.9000496666667</v>
       </c>
       <c r="N3">
-        <v>102.124381961226</v>
+        <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="P3">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="Q3">
-        <v>535.6235514115153</v>
+        <v>1296.173135422624</v>
       </c>
       <c r="R3">
-        <v>535.6235514115153</v>
+        <v>11665.55821880362</v>
       </c>
       <c r="S3">
-        <v>0.01445864448883178</v>
+        <v>0.02961424721968554</v>
       </c>
       <c r="T3">
-        <v>0.01445864448883178</v>
+        <v>0.02961424721968554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.24481559765892</v>
+        <v>12.59642866666667</v>
       </c>
       <c r="H4">
-        <v>5.24481559765892</v>
+        <v>37.789286</v>
       </c>
       <c r="I4">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="J4">
-        <v>0.03086636168085534</v>
+        <v>0.07012550280485508</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.9846792787556</v>
+        <v>34.20111066666666</v>
       </c>
       <c r="N4">
-        <v>33.9846792787556</v>
+        <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="P4">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="Q4">
-        <v>178.2433759626533</v>
+        <v>430.8118508334391</v>
       </c>
       <c r="R4">
-        <v>178.2433759626533</v>
+        <v>3877.306657500952</v>
       </c>
       <c r="S4">
-        <v>0.004811509125656757</v>
+        <v>0.009842950997122686</v>
       </c>
       <c r="T4">
-        <v>0.004811509125656757</v>
+        <v>0.009842950997122686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.046838868986</v>
+        <v>107.4733173333333</v>
       </c>
       <c r="H5">
-        <v>106.046838868986</v>
+        <v>322.419952</v>
       </c>
       <c r="I5">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="J5">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.90640435113001</v>
+        <v>106.5625623333333</v>
       </c>
       <c r="N5">
-        <v>81.90640435113001</v>
+        <v>319.687687</v>
       </c>
       <c r="O5">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="P5">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="Q5">
-        <v>8685.915264562298</v>
+        <v>11452.63207750345</v>
       </c>
       <c r="R5">
-        <v>8685.915264562298</v>
+        <v>103073.688697531</v>
       </c>
       <c r="S5">
-        <v>0.2344679589601098</v>
+        <v>0.2616634062151755</v>
       </c>
       <c r="T5">
-        <v>0.2344679589601098</v>
+        <v>0.2616634062151755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.046838868986</v>
+        <v>107.4733173333333</v>
       </c>
       <c r="H6">
-        <v>106.046838868986</v>
+        <v>322.419952</v>
       </c>
       <c r="I6">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="J6">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>102.124381961226</v>
+        <v>102.9000496666667</v>
       </c>
       <c r="N6">
-        <v>102.124381961226</v>
+        <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="P6">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="Q6">
-        <v>10829.96787843692</v>
+        <v>11059.00969144143</v>
       </c>
       <c r="R6">
-        <v>10829.96787843692</v>
+        <v>99531.08722297284</v>
       </c>
       <c r="S6">
-        <v>0.2923446046521632</v>
+        <v>0.2526701395492665</v>
       </c>
       <c r="T6">
-        <v>0.2923446046521632</v>
+        <v>0.2526701395492665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.046838868986</v>
+        <v>107.4733173333333</v>
       </c>
       <c r="H7">
-        <v>106.046838868986</v>
+        <v>322.419952</v>
       </c>
       <c r="I7">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="J7">
-        <v>0.6240982209369903</v>
+        <v>0.5983140631002458</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.9846792787556</v>
+        <v>34.20111066666666</v>
       </c>
       <c r="N7">
-        <v>33.9846792787556</v>
+        <v>102.603332</v>
       </c>
       <c r="O7">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="P7">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="Q7">
-        <v>3603.967807488362</v>
+        <v>3675.706819831118</v>
       </c>
       <c r="R7">
-        <v>3603.967807488362</v>
+        <v>33081.36137848006</v>
       </c>
       <c r="S7">
-        <v>0.09728565732471725</v>
+        <v>0.08398051733580381</v>
       </c>
       <c r="T7">
-        <v>0.09728565732471725</v>
+        <v>0.08398051733580381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>58.6284563610586</v>
+        <v>59.55718233333334</v>
       </c>
       <c r="H8">
-        <v>58.6284563610586</v>
+        <v>178.671547</v>
       </c>
       <c r="I8">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="J8">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.90640435113001</v>
+        <v>106.5625623333333</v>
       </c>
       <c r="N8">
-        <v>81.90640435113001</v>
+        <v>319.687687</v>
       </c>
       <c r="O8">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="P8">
-        <v>0.3756907984901658</v>
+        <v>0.4373345410925676</v>
       </c>
       <c r="Q8">
-        <v>4802.046053191446</v>
+        <v>6346.565954793532</v>
       </c>
       <c r="R8">
-        <v>4802.046053191446</v>
+        <v>57119.09359314178</v>
       </c>
       <c r="S8">
-        <v>0.1296266314636892</v>
+        <v>0.1450028302893452</v>
       </c>
       <c r="T8">
-        <v>0.1296266314636892</v>
+        <v>0.1450028302893452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>58.6284563610586</v>
+        <v>59.55718233333334</v>
       </c>
       <c r="H9">
-        <v>58.6284563610586</v>
+        <v>178.671547</v>
       </c>
       <c r="I9">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="J9">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>102.124381961226</v>
+        <v>102.9000496666667</v>
       </c>
       <c r="N9">
-        <v>102.124381961226</v>
+        <v>308.700149</v>
       </c>
       <c r="O9">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="P9">
-        <v>0.4684272360418708</v>
+        <v>0.4223035277493257</v>
       </c>
       <c r="Q9">
-        <v>5987.394871213819</v>
+        <v>6128.437020106723</v>
       </c>
       <c r="R9">
-        <v>5987.394871213819</v>
+        <v>55155.93318096051</v>
       </c>
       <c r="S9">
-        <v>0.1616239869008758</v>
+        <v>0.1400191409803737</v>
       </c>
       <c r="T9">
-        <v>0.1616239869008758</v>
+        <v>0.1400191409803737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>58.6284563610586</v>
+        <v>59.55718233333334</v>
       </c>
       <c r="H10">
-        <v>58.6284563610586</v>
+        <v>178.671547</v>
       </c>
       <c r="I10">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="J10">
-        <v>0.3450354173821543</v>
+        <v>0.3315604340948992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9846792787556</v>
+        <v>34.20111066666666</v>
       </c>
       <c r="N10">
-        <v>33.9846792787556</v>
+        <v>102.603332</v>
       </c>
       <c r="O10">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="P10">
-        <v>0.1558819654679633</v>
+        <v>0.1403619311581067</v>
       </c>
       <c r="Q10">
-        <v>1992.469286039095</v>
+        <v>2036.921783977178</v>
       </c>
       <c r="R10">
-        <v>1992.469286039095</v>
+        <v>18332.2960557946</v>
       </c>
       <c r="S10">
-        <v>0.05378479901758928</v>
+        <v>0.0465384628251802</v>
       </c>
       <c r="T10">
-        <v>0.05378479901758928</v>
+        <v>0.0465384628251802</v>
       </c>
     </row>
   </sheetData>
